--- a/GoogleTransExcel.xlsx
+++ b/GoogleTransExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>オリジナル</t>
     <phoneticPr fontId="1"/>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>The "What's New in Python" series of essays takes tours through the most important changes between major Python versions. They are a "must read" for anyone wishing to stay up-to-date after a new release.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>New syntax features:</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -469,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,26 +572,21 @@
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
